--- a/www/IndicatorsPerCountry/Liberia_GDPperCapita_TerritorialRef_1946_2012_CCode_430.xlsx
+++ b/www/IndicatorsPerCountry/Liberia_GDPperCapita_TerritorialRef_1946_2012_CCode_430.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Liberia_GDPperCapita_TerritorialRef_1946_2012_CCode_430.xlsx
+++ b/www/IndicatorsPerCountry/Liberia_GDPperCapita_TerritorialRef_1946_2012_CCode_430.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1055</t>
-  </si>
-  <si>
-    <t>1090</t>
-  </si>
-  <si>
-    <t>1097</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>1147</t>
-  </si>
-  <si>
-    <t>1156</t>
-  </si>
-  <si>
-    <t>1170</t>
-  </si>
-  <si>
-    <t>1183</t>
-  </si>
-  <si>
-    <t>1187</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>1230</t>
-  </si>
-  <si>
-    <t>1226</t>
-  </si>
-  <si>
-    <t>1209</t>
-  </si>
-  <si>
-    <t>1204</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>1218</t>
-  </si>
-  <si>
-    <t>1408</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>1384</t>
-  </si>
-  <si>
-    <t>1442</t>
-  </si>
-  <si>
-    <t>1492</t>
-  </si>
-  <si>
-    <t>1519</t>
-  </si>
-  <si>
-    <t>1530</t>
-  </si>
-  <si>
-    <t>1447</t>
-  </si>
-  <si>
-    <t>1508</t>
-  </si>
-  <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>1263</t>
-  </si>
-  <si>
-    <t>1221</t>
-  </si>
-  <si>
-    <t>1235</t>
-  </si>
-  <si>
-    <t>1255</t>
-  </si>
-  <si>
-    <t>1162</t>
-  </si>
-  <si>
-    <t>1155</t>
-  </si>
-  <si>
-    <t>1091</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>969</t>
-  </si>
-  <si>
-    <t>968</t>
-  </si>
-  <si>
-    <t>964</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>918</t>
-  </si>
-  <si>
-    <t>1060.34321113</t>
-  </si>
-  <si>
-    <t>1255.11869428</t>
-  </si>
-  <si>
-    <t>1213.05943939</t>
-  </si>
-  <si>
-    <t>1193.07633779</t>
-  </si>
-  <si>
-    <t>1228.73953913</t>
-  </si>
-  <si>
-    <t>1261.6111767</t>
-  </si>
-  <si>
-    <t>1254.41464106</t>
-  </si>
-  <si>
-    <t>1160.69412689</t>
-  </si>
-  <si>
-    <t>1050.54720072</t>
-  </si>
-  <si>
-    <t>1009.38384486</t>
-  </si>
-  <si>
-    <t>989.656292036</t>
-  </si>
-  <si>
-    <t>982.84123019</t>
-  </si>
-  <si>
-    <t>1012.38583583</t>
-  </si>
-  <si>
-    <t>696.775129787</t>
-  </si>
-  <si>
-    <t>715.529372481</t>
-  </si>
-  <si>
-    <t>729.451904931</t>
-  </si>
-  <si>
-    <t>749.676656771</t>
-  </si>
-  <si>
-    <t>780.993081515</t>
-  </si>
-  <si>
-    <t>801.598518797</t>
+    <t>3151</t>
+  </si>
+  <si>
+    <t>3257</t>
+  </si>
+  <si>
+    <t>3277</t>
+  </si>
+  <si>
+    <t>3325</t>
+  </si>
+  <si>
+    <t>3427</t>
+  </si>
+  <si>
+    <t>3454</t>
+  </si>
+  <si>
+    <t>3494</t>
+  </si>
+  <si>
+    <t>3537</t>
+  </si>
+  <si>
+    <t>3545</t>
+  </si>
+  <si>
+    <t>3655</t>
+  </si>
+  <si>
+    <t>3674</t>
+  </si>
+  <si>
+    <t>3663</t>
+  </si>
+  <si>
+    <t>3612</t>
+  </si>
+  <si>
+    <t>3598</t>
+  </si>
+  <si>
+    <t>3679</t>
+  </si>
+  <si>
+    <t>3639</t>
+  </si>
+  <si>
+    <t>4208</t>
+  </si>
+  <si>
+    <t>4065</t>
+  </si>
+  <si>
+    <t>4136</t>
+  </si>
+  <si>
+    <t>4309</t>
+  </si>
+  <si>
+    <t>4457</t>
+  </si>
+  <si>
+    <t>4544</t>
+  </si>
+  <si>
+    <t>4568</t>
+  </si>
+  <si>
+    <t>4603</t>
+  </si>
+  <si>
+    <t>4616</t>
+  </si>
+  <si>
+    <t>4326</t>
+  </si>
+  <si>
+    <t>4415</t>
+  </si>
+  <si>
+    <t>4339</t>
+  </si>
+  <si>
+    <t>4463</t>
+  </si>
+  <si>
+    <t>4546</t>
+  </si>
+  <si>
+    <t>4138</t>
+  </si>
+  <si>
+    <t>3862</t>
+  </si>
+  <si>
+    <t>3813</t>
+  </si>
+  <si>
+    <t>3572</t>
+  </si>
+  <si>
+    <t>3443</t>
+  </si>
+  <si>
+    <t>3269</t>
+  </si>
+  <si>
+    <t>3129</t>
+  </si>
+  <si>
+    <t>3084</t>
+  </si>
+  <si>
+    <t>3070</t>
+  </si>
+  <si>
+    <t>3054</t>
+  </si>
+  <si>
+    <t>1690</t>
+  </si>
+  <si>
+    <t>1568.40432869831</t>
+  </si>
+  <si>
+    <t>915.120585248132</t>
+  </si>
+  <si>
+    <t>560.333014747494</t>
+  </si>
+  <si>
+    <t>418.121582144975</t>
+  </si>
+  <si>
+    <t>377.580086005337</t>
+  </si>
+  <si>
+    <t>391.085917171772</t>
+  </si>
+  <si>
+    <t>701.785385010882</t>
+  </si>
+  <si>
+    <t>772.676468284599</t>
+  </si>
+  <si>
+    <t>848.421168136595</t>
+  </si>
+  <si>
+    <t>971.933016146115</t>
+  </si>
+  <si>
+    <t>1097.24958690587</t>
+  </si>
+  <si>
+    <t>1342.75876125062</t>
+  </si>
+  <si>
+    <t>851.910950210634</t>
+  </si>
+  <si>
+    <t>760.875776109511</t>
+  </si>
+  <si>
+    <t>755.223591044875</t>
+  </si>
+  <si>
+    <t>769.292953529305</t>
+  </si>
+  <si>
+    <t>768.207040845143</t>
+  </si>
+  <si>
+    <t>811.158033784576</t>
+  </si>
+  <si>
+    <t>838.45203626212</t>
+  </si>
+  <si>
+    <t>854.234972865737</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>865</t>
+  </si>
+  <si>
+    <t>829</t>
   </si>
   <si>
     <t>Description</t>
@@ -1317,6 +1341,142 @@
         <v>65</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1332,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
